--- a/2P sheets/all 2P/LLW_Genus_2PSummary.xlsx
+++ b/2P sheets/all 2P/LLW_Genus_2PSummary.xlsx
@@ -37,7 +37,7 @@
     <sheet name="Orthocladine" sheetId="29" state="visible" r:id="rId29"/>
     <sheet name="Oulimnius" sheetId="30" state="visible" r:id="rId30"/>
     <sheet name="Paracapnia" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="Paraleptophlebiidae" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="Paraleptophlebia" sheetId="32" state="visible" r:id="rId32"/>
     <sheet name="Probezzia" sheetId="33" state="visible" r:id="rId33"/>
     <sheet name="Prosimulium" sheetId="34" state="visible" r:id="rId34"/>
     <sheet name="Prostoia" sheetId="35" state="visible" r:id="rId35"/>
@@ -209,7 +209,7 @@
     <t xml:space="preserve">Paracapnia</t>
   </si>
   <si>
-    <t xml:space="preserve">Paraleptophlebiidae</t>
+    <t xml:space="preserve">Paraleptophlebia</t>
   </si>
   <si>
     <t xml:space="preserve">Probezzia</t>
@@ -7910,16 +7910,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0661926085</v>
+        <v>0.00661926085</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.712514623250807</v>
+        <v>0.0712514623250807</v>
       </c>
       <c r="H2" t="n">
-        <v>0.34405911025</v>
+        <v>0.034405911025</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -7928,10 +7928,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1337.11161784177</v>
+        <v>133.711161784177</v>
       </c>
       <c r="L2" t="n">
-        <v>2111.12202653391</v>
+        <v>211.112202653391</v>
       </c>
       <c r="M2" t="n">
         <v>1.57886746204589</v>
@@ -7940,7 +7940,7 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O2" t="n">
-        <v>1935.19519098942</v>
+        <v>193.519519098942</v>
       </c>
       <c r="P2" t="n">
         <v>1.44729517354207</v>
@@ -7963,16 +7963,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.621925612</v>
+        <v>0.0621925612</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6.6945706350915</v>
+        <v>0.66945706350915</v>
       </c>
       <c r="H3" t="n">
-        <v>1.4639789705</v>
+        <v>0.14639789705</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -7981,10 +7981,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1337.11161784177</v>
+        <v>133.711161784177</v>
       </c>
       <c r="L3" t="n">
-        <v>2111.12202653391</v>
+        <v>211.112202653391</v>
       </c>
       <c r="M3" t="n">
         <v>1.57886746204589</v>
@@ -7993,7 +7993,7 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O3" t="n">
-        <v>1935.19519098942</v>
+        <v>193.519519098942</v>
       </c>
       <c r="P3" t="n">
         <v>1.44729517354207</v>
@@ -8016,16 +8016,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>2.306032329</v>
+        <v>0.2306032329</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>24.822737664155</v>
+        <v>2.4822737664155</v>
       </c>
       <c r="H4" t="n">
-        <v>4.0747280855</v>
+        <v>0.40747280855</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -8034,10 +8034,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1337.11161784177</v>
+        <v>133.711161784177</v>
       </c>
       <c r="L4" t="n">
-        <v>2111.12202653391</v>
+        <v>211.112202653391</v>
       </c>
       <c r="M4" t="n">
         <v>1.57886746204589</v>
@@ -8046,7 +8046,7 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O4" t="n">
-        <v>1935.19519098942</v>
+        <v>193.519519098942</v>
       </c>
       <c r="P4" t="n">
         <v>1.44729517354207</v>
@@ -8069,16 +8069,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>5.843423842</v>
+        <v>0.5843423842</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>62.9001489989236</v>
+        <v>6.29001489989236</v>
       </c>
       <c r="H5" t="n">
-        <v>6.7060377325</v>
+        <v>0.67060377325</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -8087,10 +8087,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1337.11161784177</v>
+        <v>133.711161784177</v>
       </c>
       <c r="L5" t="n">
-        <v>2111.12202653391</v>
+        <v>211.112202653391</v>
       </c>
       <c r="M5" t="n">
         <v>1.57886746204589</v>
@@ -8099,7 +8099,7 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O5" t="n">
-        <v>1935.19519098942</v>
+        <v>193.519519098942</v>
       </c>
       <c r="P5" t="n">
         <v>1.44729517354207</v>
@@ -8122,16 +8122,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E6" t="n">
-        <v>7.568651623</v>
+        <v>0.7568651623</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>81.4709539612487</v>
+        <v>8.14709539612487</v>
       </c>
       <c r="H6" t="n">
-        <v>8.592823555</v>
+        <v>0.8592823555</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -8140,10 +8140,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1337.11161784177</v>
+        <v>133.711161784177</v>
       </c>
       <c r="L6" t="n">
-        <v>2111.12202653391</v>
+        <v>211.112202653391</v>
       </c>
       <c r="M6" t="n">
         <v>1.57886746204589</v>
@@ -8152,7 +8152,7 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O6" t="n">
-        <v>1935.19519098942</v>
+        <v>193.519519098942</v>
       </c>
       <c r="P6" t="n">
         <v>1.44729517354207</v>
@@ -8175,16 +8175,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E7" t="n">
-        <v>9.616995487</v>
+        <v>0.9616995487</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>103.519865306781</v>
+        <v>10.3519865306782</v>
       </c>
       <c r="H7" t="n">
-        <v>10.8181667685</v>
+        <v>1.08181667685</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -8193,10 +8193,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1337.11161784177</v>
+        <v>133.711161784177</v>
       </c>
       <c r="L7" t="n">
-        <v>2111.12202653391</v>
+        <v>211.112202653391</v>
       </c>
       <c r="M7" t="n">
         <v>1.57886746204589</v>
@@ -8205,7 +8205,7 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O7" t="n">
-        <v>1935.19519098942</v>
+        <v>193.519519098942</v>
       </c>
       <c r="P7" t="n">
         <v>1.44729517354207</v>
@@ -8228,16 +8228,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E8" t="n">
-        <v>12.01933805</v>
+        <v>1.201933805</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>129.379311625404</v>
+        <v>12.9379311625404</v>
       </c>
       <c r="H8" t="n">
-        <v>16.843058125</v>
+        <v>1.6843058125</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -8246,10 +8246,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1337.11161784177</v>
+        <v>133.711161784177</v>
       </c>
       <c r="L8" t="n">
-        <v>2111.12202653391</v>
+        <v>211.112202653391</v>
       </c>
       <c r="M8" t="n">
         <v>1.57886746204589</v>
@@ -8258,7 +8258,7 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O8" t="n">
-        <v>1935.19519098942</v>
+        <v>193.519519098942</v>
       </c>
       <c r="P8" t="n">
         <v>1.44729517354207</v>
@@ -8281,16 +8281,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E9" t="n">
-        <v>21.6667782</v>
+        <v>2.16667782</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>233.226891280947</v>
+        <v>23.3226891280947</v>
       </c>
       <c r="H9" t="n">
-        <v>23.735335805</v>
+        <v>2.3735335805</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -8299,10 +8299,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1337.11161784177</v>
+        <v>133.711161784177</v>
       </c>
       <c r="L9" t="n">
-        <v>2111.12202653391</v>
+        <v>211.112202653391</v>
       </c>
       <c r="M9" t="n">
         <v>1.57886746204589</v>
@@ -8311,7 +8311,7 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O9" t="n">
-        <v>1935.19519098942</v>
+        <v>193.519519098942</v>
       </c>
       <c r="P9" t="n">
         <v>1.44729517354207</v>
@@ -8334,16 +8334,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E10" t="n">
-        <v>25.80389341</v>
+        <v>2.580389341</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>277.759886006459</v>
+        <v>27.7759886006459</v>
       </c>
       <c r="H10" t="n">
-        <v>14.424780658</v>
+        <v>1.4424780658</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -8352,10 +8352,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1337.11161784177</v>
+        <v>133.711161784177</v>
       </c>
       <c r="L10" t="n">
-        <v>2111.12202653391</v>
+        <v>211.112202653391</v>
       </c>
       <c r="M10" t="n">
         <v>1.57886746204589</v>
@@ -8364,7 +8364,7 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O10" t="n">
-        <v>1935.19519098942</v>
+        <v>193.519519098942</v>
       </c>
       <c r="P10" t="n">
         <v>1.44729517354207</v>
@@ -8387,16 +8387,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E11" t="n">
-        <v>3.045667906</v>
+        <v>0.3045667906</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>32.7843692787944</v>
+        <v>3.27843692787944</v>
       </c>
       <c r="H11" t="n">
-        <v>19.352219068</v>
+        <v>1.9352219068</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -8405,10 +8405,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1337.11161784177</v>
+        <v>133.711161784177</v>
       </c>
       <c r="L11" t="n">
-        <v>2111.12202653391</v>
+        <v>211.112202653391</v>
       </c>
       <c r="M11" t="n">
         <v>1.57886746204589</v>
@@ -8417,7 +8417,7 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O11" t="n">
-        <v>1935.19519098942</v>
+        <v>193.519519098942</v>
       </c>
       <c r="P11" t="n">
         <v>1.44729517354207</v>
@@ -8440,28 +8440,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E12" t="n">
-        <v>35.65877023</v>
+        <v>3.565877023</v>
       </c>
       <c r="F12" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G12" t="n">
-        <v>383.84036846071</v>
+        <v>38.384036846071</v>
       </c>
       <c r="H12" t="n">
-        <v>17.829385115</v>
+        <v>1.7829385115</v>
       </c>
       <c r="I12" t="n">
-        <v>191.920184230355</v>
+        <v>19.1920184230355</v>
       </c>
       <c r="J12" t="n">
-        <v>2111.12202653391</v>
+        <v>211.112202653391</v>
       </c>
       <c r="K12" t="n">
-        <v>1337.11161784177</v>
+        <v>133.711161784177</v>
       </c>
       <c r="L12" t="n">
-        <v>2111.12202653391</v>
+        <v>211.112202653391</v>
       </c>
       <c r="M12" t="n">
         <v>1.57886746204589</v>
@@ -8470,7 +8470,7 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O12" t="n">
-        <v>1935.19519098942</v>
+        <v>193.519519098942</v>
       </c>
       <c r="P12" t="n">
         <v>1.44729517354207</v>
@@ -9171,28 +9171,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.550637635</v>
+        <v>0.0550637635</v>
       </c>
       <c r="F2" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G2" t="n">
-        <v>11.8544162540366</v>
+        <v>1.18544162540366</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2753188175</v>
+        <v>0.02753188175</v>
       </c>
       <c r="I2" t="n">
-        <v>5.9272081270183</v>
+        <v>0.59272081270183</v>
       </c>
       <c r="J2" t="n">
-        <v>5.9272081270183</v>
+        <v>0.59272081270183</v>
       </c>
       <c r="K2" t="n">
-        <v>11.8544162540366</v>
+        <v>1.18544162540366</v>
       </c>
       <c r="L2" t="n">
-        <v>5.9272081270183</v>
+        <v>0.59272081270183</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -9201,7 +9201,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.493934010584858</v>
+        <v>0.0493934010584858</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -9291,16 +9291,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2398014091</v>
+        <v>0.02398014091</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.58128535091496</v>
+        <v>0.258128535091496</v>
       </c>
       <c r="H2" t="n">
-        <v>0.35850331625</v>
+        <v>0.035850331625</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -9309,10 +9309,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.71804771259419</v>
+        <v>0.771804771259419</v>
       </c>
       <c r="L2" t="n">
-        <v>5.13676236167923</v>
+        <v>0.513676236167923</v>
       </c>
       <c r="M2" t="n">
         <v>0.665552035043414</v>
@@ -9321,7 +9321,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>0.856127060279871</v>
+        <v>0.0856127060279871</v>
       </c>
       <c r="P2" t="n">
         <v>0.110925339173902</v>
@@ -9344,28 +9344,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4772052234</v>
+        <v>0.04772052234</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>5.13676236167923</v>
+        <v>0.513676236167923</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2386026117</v>
+        <v>0.02386026117</v>
       </c>
       <c r="I3" t="n">
-        <v>2.56838118083961</v>
+        <v>0.256838118083961</v>
       </c>
       <c r="J3" t="n">
-        <v>5.13676236167923</v>
+        <v>0.513676236167923</v>
       </c>
       <c r="K3" t="n">
-        <v>7.71804771259419</v>
+        <v>0.771804771259419</v>
       </c>
       <c r="L3" t="n">
-        <v>5.13676236167923</v>
+        <v>0.513676236167923</v>
       </c>
       <c r="M3" t="n">
         <v>0.665552035043414</v>
@@ -9374,7 +9374,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>0.856127060279871</v>
+        <v>0.0856127060279871</v>
       </c>
       <c r="P3" t="n">
         <v>0.110925339173902</v>
@@ -11562,28 +11562,28 @@
         <v>16.1463939720129</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0093</v>
+        <v>0.00093</v>
       </c>
       <c r="F2" t="n">
         <v>5.38213132400431</v>
       </c>
       <c r="G2" t="n">
-        <v>0.15016146393972</v>
+        <v>0.015016146393972</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06645733125</v>
+        <v>0.006645733125</v>
       </c>
       <c r="I2" t="n">
-        <v>0.357682084230355</v>
+        <v>0.0357682084230355</v>
       </c>
       <c r="J2" t="n">
-        <v>1.78841042115178</v>
+        <v>0.178841042115178</v>
       </c>
       <c r="K2" t="n">
-        <v>18.5357391776103</v>
+        <v>1.85357391776103</v>
       </c>
       <c r="L2" t="n">
-        <v>23.7670086531216</v>
+        <v>2.37670086531216</v>
       </c>
       <c r="M2" t="n">
         <v>1.28222610522219</v>
@@ -11592,7 +11592,7 @@
         <v>2.4</v>
       </c>
       <c r="O2" t="n">
-        <v>9.90292027213401</v>
+        <v>0.990292027213402</v>
       </c>
       <c r="P2" t="n">
         <v>0.534260877175912</v>
@@ -11615,16 +11615,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1236146625</v>
+        <v>0.01236146625</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.33062069429494</v>
+        <v>0.133062069429494</v>
       </c>
       <c r="H3" t="n">
-        <v>0.19713079645</v>
+        <v>0.019713079645</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -11633,10 +11633,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>18.5357391776103</v>
+        <v>1.85357391776103</v>
       </c>
       <c r="L3" t="n">
-        <v>23.7670086531216</v>
+        <v>2.37670086531216</v>
       </c>
       <c r="M3" t="n">
         <v>1.28222610522219</v>
@@ -11645,7 +11645,7 @@
         <v>2.4</v>
       </c>
       <c r="O3" t="n">
-        <v>9.90292027213401</v>
+        <v>0.990292027213402</v>
       </c>
       <c r="P3" t="n">
         <v>0.534260877175912</v>
@@ -11668,16 +11668,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2706469304</v>
+        <v>0.02706469304</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2.91331464370291</v>
+        <v>0.291331464370291</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3838403984</v>
+        <v>0.03838403984</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -11686,10 +11686,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>18.5357391776103</v>
+        <v>1.85357391776103</v>
       </c>
       <c r="L4" t="n">
-        <v>23.7670086531216</v>
+        <v>2.37670086531216</v>
       </c>
       <c r="M4" t="n">
         <v>1.28222610522219</v>
@@ -11698,7 +11698,7 @@
         <v>2.4</v>
       </c>
       <c r="O4" t="n">
-        <v>9.90292027213401</v>
+        <v>0.990292027213402</v>
       </c>
       <c r="P4" t="n">
         <v>0.534260877175912</v>
@@ -11721,16 +11721,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4970338664</v>
+        <v>0.04970338664</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>5.35020308288482</v>
+        <v>0.535020308288482</v>
       </c>
       <c r="H5" t="n">
-        <v>0.65687928835</v>
+        <v>0.065687928835</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -11739,10 +11739,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>18.5357391776103</v>
+        <v>1.85357391776103</v>
       </c>
       <c r="L5" t="n">
-        <v>23.7670086531216</v>
+        <v>2.37670086531216</v>
       </c>
       <c r="M5" t="n">
         <v>1.28222610522219</v>
@@ -11751,7 +11751,7 @@
         <v>2.4</v>
       </c>
       <c r="O5" t="n">
-        <v>9.90292027213401</v>
+        <v>0.990292027213402</v>
       </c>
       <c r="P5" t="n">
         <v>0.534260877175912</v>
@@ -11774,28 +11774,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8167247103</v>
+        <v>0.08167247103</v>
       </c>
       <c r="F6" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G6" t="n">
-        <v>8.79143929278794</v>
+        <v>0.879143929278794</v>
       </c>
       <c r="H6" t="n">
-        <v>0.40836235515</v>
+        <v>0.040836235515</v>
       </c>
       <c r="I6" t="n">
-        <v>4.39571964639397</v>
+        <v>0.439571964639397</v>
       </c>
       <c r="J6" t="n">
-        <v>21.9785982319699</v>
+        <v>2.19785982319699</v>
       </c>
       <c r="K6" t="n">
-        <v>18.5357391776103</v>
+        <v>1.85357391776103</v>
       </c>
       <c r="L6" t="n">
-        <v>23.7670086531216</v>
+        <v>2.37670086531216</v>
       </c>
       <c r="M6" t="n">
         <v>1.28222610522219</v>
@@ -11804,7 +11804,7 @@
         <v>2.4</v>
       </c>
       <c r="O6" t="n">
-        <v>9.90292027213401</v>
+        <v>0.990292027213402</v>
       </c>
       <c r="P6" t="n">
         <v>0.534260877175912</v>
@@ -14288,28 +14288,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8225727212</v>
+        <v>0.08225727212</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>8.85438881808396</v>
+        <v>0.885438881808396</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4112863606</v>
+        <v>0.04112863606</v>
       </c>
       <c r="I2" t="n">
-        <v>4.42719440904198</v>
+        <v>0.442719440904198</v>
       </c>
       <c r="J2" t="n">
-        <v>4.42719440904198</v>
+        <v>0.442719440904198</v>
       </c>
       <c r="K2" t="n">
-        <v>8.85438881808396</v>
+        <v>0.885438881808396</v>
       </c>
       <c r="L2" t="n">
-        <v>4.42719440904198</v>
+        <v>0.442719440904198</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -14318,7 +14318,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.368932867420165</v>
+        <v>0.0368932867420165</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
